--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -17442,10 +17442,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17513,9 +17513,6 @@
       <c r="I2" s="0" t="n">
         <v>118241</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>5204</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">

--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="covid_19_daily_province" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="37">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -143,7 +143,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,11 +171,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,10 +229,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K668"/>
+  <dimension ref="A1:K696"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I668" activeCellId="0" sqref="I668"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A675" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I691" activeCellId="0" sqref="I691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13521,7 +13512,7 @@
       <c r="A640" s="2" t="n">
         <v>43950</v>
       </c>
-      <c r="B640" s="4" t="s">
+      <c r="B640" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C640" s="0" t="n">
@@ -13840,7 +13831,7 @@
       <c r="A654" s="2" t="n">
         <v>43953</v>
       </c>
-      <c r="B654" s="4" t="s">
+      <c r="B654" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C654" s="0" t="n">
@@ -14031,9 +14022,6 @@
         <f aca="false">C662+E661</f>
         <v>10800</v>
       </c>
-      <c r="F662" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G662" s="0" t="n">
         <v>2</v>
       </c>
@@ -14107,9 +14095,6 @@
         <f aca="false">C665+E664</f>
         <v>10803</v>
       </c>
-      <c r="F665" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G665" s="0" t="n">
         <v>2</v>
       </c>
@@ -14183,9 +14168,6 @@
         <f aca="false">C668+E667</f>
         <v>10805</v>
       </c>
-      <c r="F668" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="G668" s="0" t="n">
         <v>2</v>
       </c>
@@ -14198,6 +14180,521 @@
       </c>
       <c r="K668" s="0" t="n">
         <v>5338</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B669" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C669" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D669" s="0" t="n">
+        <v>6856</v>
+      </c>
+      <c r="E669" s="0" t="n">
+        <f aca="false">C669+E668</f>
+        <v>10805</v>
+      </c>
+      <c r="F669" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G669" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B670" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C670" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D670" s="0" t="n">
+        <v>552</v>
+      </c>
+      <c r="E670" s="0" t="n">
+        <f aca="false">C670+E669</f>
+        <v>10806</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B671" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C671" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D671" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E671" s="0" t="n">
+        <f aca="false">C671+E670</f>
+        <v>10807</v>
+      </c>
+      <c r="G671" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B672" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C672" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D672" s="0" t="n">
+        <v>677</v>
+      </c>
+      <c r="E672" s="0" t="n">
+        <f aca="false">C672+E671</f>
+        <v>10808</v>
+      </c>
+      <c r="G672" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C673" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D673" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="E673" s="0" t="n">
+        <f aca="false">C673+E672</f>
+        <v>10809</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D674" s="0" t="n">
+        <v>632</v>
+      </c>
+      <c r="E674" s="0" t="n">
+        <f aca="false">C674+E673</f>
+        <v>10809</v>
+      </c>
+      <c r="G674" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I674" s="0" t="n">
+        <f aca="false">J674-119423</f>
+        <v>861</v>
+      </c>
+      <c r="J674" s="0" t="n">
+        <v>120284</v>
+      </c>
+      <c r="K674" s="0" t="n">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C675" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D675" s="0" t="n">
+        <v>6859</v>
+      </c>
+      <c r="E675" s="0" t="n">
+        <f aca="false">C675+E674</f>
+        <v>10812</v>
+      </c>
+      <c r="G675" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C676" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D676" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="E676" s="0" t="n">
+        <f aca="false">C676+E675</f>
+        <v>10815</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B677" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C677" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D677" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="E677" s="0" t="n">
+        <f aca="false">C677+E676</f>
+        <v>10817</v>
+      </c>
+      <c r="G677" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B678" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C678" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D678" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="E678" s="0" t="n">
+        <f aca="false">C678+E677</f>
+        <v>10819</v>
+      </c>
+      <c r="G678" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B679" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C679" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D679" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E679" s="0" t="n">
+        <f aca="false">C679+E678</f>
+        <v>10820</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B680" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C680" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D680" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E680" s="0" t="n">
+        <f aca="false">C680+E679</f>
+        <v>10821</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C681" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D681" s="0" t="n">
+        <v>644</v>
+      </c>
+      <c r="E681" s="0" t="n">
+        <f aca="false">C681+E680</f>
+        <v>10833</v>
+      </c>
+      <c r="G681" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B682" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C682" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D682" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="E682" s="0" t="n">
+        <f aca="false">C682+E681</f>
+        <v>10834</v>
+      </c>
+      <c r="G682" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B683" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C683" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D683" s="0" t="n">
+        <v>565</v>
+      </c>
+      <c r="E683" s="0" t="n">
+        <f aca="false">C683+E682</f>
+        <v>10835</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B684" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C684" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D684" s="0" t="n">
+        <v>683</v>
+      </c>
+      <c r="E684" s="0" t="n">
+        <f aca="false">C684+E683</f>
+        <v>10839</v>
+      </c>
+      <c r="G684" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C685" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D685" s="0" t="n">
+        <v>658</v>
+      </c>
+      <c r="E685" s="0" t="n">
+        <f aca="false">C685+E684</f>
+        <v>10853</v>
+      </c>
+      <c r="G685" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B686" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C686" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D686" s="0" t="n">
+        <v>6861</v>
+      </c>
+      <c r="E686" s="0" t="n">
+        <f aca="false">C686+E685</f>
+        <v>10855</v>
+      </c>
+      <c r="G686" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B687" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D687" s="0" t="n">
+        <v>574</v>
+      </c>
+      <c r="E687" s="0" t="n">
+        <f aca="false">C687+E686</f>
+        <v>10864</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B688" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C688" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D688" s="0" t="n">
+        <v>689</v>
+      </c>
+      <c r="E688" s="0" t="n">
+        <f aca="false">C688+E687</f>
+        <v>10870</v>
+      </c>
+      <c r="G688" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B689" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C689" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D689" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E689" s="0" t="n">
+        <f aca="false">C689+E688</f>
+        <v>10872</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B690" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C690" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D690" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E690" s="0" t="n">
+        <f aca="false">C690+E689</f>
+        <v>10873</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C691" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D691" s="0" t="n">
+        <v>678</v>
+      </c>
+      <c r="E691" s="0" t="n">
+        <f aca="false">C691+E690</f>
+        <v>10893</v>
+      </c>
+      <c r="G691" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I691" s="0" t="n">
+        <f aca="false">J691-120284</f>
+        <v>3605</v>
+      </c>
+      <c r="J691" s="0" t="n">
+        <v>123889</v>
+      </c>
+      <c r="K691" s="0" t="n">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C692" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D692" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="E692" s="0" t="n">
+        <f aca="false">C692+E691</f>
+        <v>10899</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C693" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D693" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E693" s="0" t="n">
+        <f aca="false">C693+E692</f>
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C694" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D694" s="0" t="n">
+        <v>693</v>
+      </c>
+      <c r="E694" s="0" t="n">
+        <f aca="false">C694+E693</f>
+        <v>10904</v>
+      </c>
+      <c r="G694" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C695" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D695" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E695" s="0" t="n">
+        <f aca="false">C695+E694</f>
+        <v>10905</v>
+      </c>
+      <c r="G695" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B696" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C696" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D696" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E696" s="0" t="n">
+        <f aca="false">C696+E695</f>
+        <v>10908</v>
       </c>
     </row>
   </sheetData>
@@ -14216,10 +14713,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G111" activeCellId="0" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17424,6 +17921,262 @@
       </c>
       <c r="I101" s="0" t="n">
         <v>8588</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>43954</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <f aca="false">D101+C102</f>
+        <v>10801</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <f aca="false">F101+E102</f>
+        <v>252</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <f aca="false">H102-H101</f>
+        <v>2948</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>633921</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>43955</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <f aca="false">D102+C103</f>
+        <v>10804</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <f aca="false">F102+E103</f>
+        <v>254</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <f aca="false">H103-H102</f>
+        <v>6316</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>640237</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>43956</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <f aca="false">D103+C104</f>
+        <v>10806</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <f aca="false">F103+E104</f>
+        <v>255</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <f aca="false">H104-H103</f>
+        <v>2858</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>643095</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <f aca="false">D104+C105</f>
+        <v>10810</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <f aca="false">F104+E105</f>
+        <v>256</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <f aca="false">H105-H104</f>
+        <v>6293</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>649388</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <f aca="false">D105+C106</f>
+        <v>10822</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <f aca="false">F105+E106</f>
+        <v>256</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <f aca="false">H106-H105</f>
+        <v>5475</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>654863</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>43959</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <f aca="false">D106+C107</f>
+        <v>10840</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <f aca="false">F106+E107</f>
+        <v>256</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <f aca="false">H107-H106</f>
+        <v>5167</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>660030</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <f aca="false">D107+C108</f>
+        <v>10874</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <f aca="false">F107+E108</f>
+        <v>256</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <f aca="false">H108-H107</f>
+        <v>3856</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>663886</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>10128</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <f aca="false">D108+C109</f>
+        <v>10909</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <f aca="false">F108+E109</f>
+        <v>256</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <f aca="false">H109-H108</f>
+        <v>4606</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>668492</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>10922</v>
       </c>
     </row>
   </sheetData>
@@ -17444,8 +18197,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17486,16 +18239,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -17504,19 +18257,19 @@
         <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1182</v>
+        <f aca="false">H2-120284</f>
+        <v>3605</v>
       </c>
       <c r="H2" s="0" t="n">
-        <f aca="false">I2-117774</f>
-        <v>467</v>
+        <v>123889</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>118241</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>23</v>
@@ -17525,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -17536,7 +18289,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -17545,28 +18298,28 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>6856</v>
+        <v>6861</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">97+466</f>
-        <v>563</v>
+        <f aca="false">104+479</f>
+        <v>583</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -17577,7 +18330,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -17597,7 +18350,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>24</v>
@@ -17606,7 +18359,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -17617,7 +18370,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>25</v>
@@ -17637,16 +18390,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -17657,16 +18410,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -17677,16 +18430,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -17697,16 +18450,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -17717,7 +18470,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>15</v>
@@ -17737,7 +18490,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>14</v>
@@ -17746,7 +18499,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -17757,7 +18510,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>17</v>
@@ -17777,7 +18530,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>19</v>
@@ -17797,7 +18550,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>21</v>
@@ -17817,7 +18570,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>22</v>
@@ -17826,7 +18579,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>

--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="31">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -109,24 +109,6 @@
   </si>
   <si>
     <t xml:space="preserve">02/26/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82514?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83621?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105582?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108856?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114805?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116120?</t>
   </si>
   <si>
     <t xml:space="preserve">Country</t>
@@ -251,8 +233,8 @@
   </sheetPr>
   <dimension ref="A1:K696"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A675" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I691" activeCellId="0" sqref="I691"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E606" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J618" activeCellId="0" sqref="J618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10267,9 +10249,6 @@
         <f aca="false">C494+E493</f>
         <v>10288</v>
       </c>
-      <c r="J494" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="K494" s="0" t="n">
         <v>4758</v>
       </c>
@@ -10462,9 +10441,6 @@
       <c r="G503" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J503" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="K503" s="0" t="n">
         <v>4680</v>
       </c>
@@ -12705,9 +12681,7 @@
         <v>2</v>
       </c>
       <c r="I603" s="0"/>
-      <c r="J603" s="0" t="s">
-        <v>31</v>
-      </c>
+      <c r="J603" s="0"/>
       <c r="K603" s="0" t="n">
         <v>5289</v>
       </c>
@@ -12976,9 +12950,6 @@
       <c r="G615" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J615" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="K615" s="0" t="n">
         <v>5363</v>
       </c>
@@ -13549,9 +13520,6 @@
       <c r="G641" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J641" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="K641" s="0" t="n">
         <v>5474</v>
       </c>
@@ -13642,9 +13610,6 @@
       <c r="G645" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J645" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="K645" s="0" t="n">
         <v>5442</v>
       </c>
@@ -14313,6 +14278,9 @@
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="2" t="n">
+        <v>43958</v>
+      </c>
       <c r="B675" s="0" t="s">
         <v>18</v>
       </c>
@@ -14331,6 +14299,9 @@
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="2" t="n">
+        <v>43958</v>
+      </c>
       <c r="B676" s="0" t="s">
         <v>11</v>
       </c>
@@ -14346,6 +14317,9 @@
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="2" t="n">
+        <v>43958</v>
+      </c>
       <c r="B677" s="0" t="s">
         <v>25</v>
       </c>
@@ -14364,6 +14338,9 @@
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="2" t="n">
+        <v>43958</v>
+      </c>
       <c r="B678" s="0" t="s">
         <v>13</v>
       </c>
@@ -14382,6 +14359,9 @@
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="2" t="n">
+        <v>43958</v>
+      </c>
       <c r="B679" s="0" t="s">
         <v>20</v>
       </c>
@@ -14397,6 +14377,9 @@
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="2" t="n">
+        <v>43958</v>
+      </c>
       <c r="B680" s="0" t="s">
         <v>14</v>
       </c>
@@ -14433,6 +14416,9 @@
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="2" t="n">
+        <v>43959</v>
+      </c>
       <c r="B682" s="0" t="s">
         <v>23</v>
       </c>
@@ -14451,6 +14437,9 @@
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="2" t="n">
+        <v>43959</v>
+      </c>
       <c r="B683" s="0" t="s">
         <v>11</v>
       </c>
@@ -14466,6 +14455,9 @@
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="2" t="n">
+        <v>43959</v>
+      </c>
       <c r="B684" s="0" t="s">
         <v>13</v>
       </c>
@@ -14505,6 +14497,9 @@
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="2" t="n">
+        <v>43960</v>
+      </c>
       <c r="B686" s="0" t="s">
         <v>18</v>
       </c>
@@ -14523,6 +14518,9 @@
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="2" t="n">
+        <v>43960</v>
+      </c>
       <c r="B687" s="0" t="s">
         <v>11</v>
       </c>
@@ -14538,6 +14536,9 @@
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="2" t="n">
+        <v>43960</v>
+      </c>
       <c r="B688" s="0" t="s">
         <v>13</v>
       </c>
@@ -14556,6 +14557,9 @@
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="2" t="n">
+        <v>43960</v>
+      </c>
       <c r="B689" s="0" t="s">
         <v>20</v>
       </c>
@@ -14571,6 +14575,9 @@
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="2" t="n">
+        <v>43960</v>
+      </c>
       <c r="B690" s="0" t="s">
         <v>22</v>
       </c>
@@ -14617,6 +14624,9 @@
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="2" t="n">
+        <v>43961</v>
+      </c>
       <c r="B692" s="0" t="s">
         <v>11</v>
       </c>
@@ -14632,6 +14642,9 @@
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="2" t="n">
+        <v>43961</v>
+      </c>
       <c r="B693" s="0" t="s">
         <v>26</v>
       </c>
@@ -14647,6 +14660,9 @@
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="2" t="n">
+        <v>43961</v>
+      </c>
       <c r="B694" s="0" t="s">
         <v>13</v>
       </c>
@@ -14665,6 +14681,9 @@
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="2" t="n">
+        <v>43961</v>
+      </c>
       <c r="B695" s="0" t="s">
         <v>27</v>
       </c>
@@ -14683,6 +14702,9 @@
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="2" t="n">
+        <v>43961</v>
+      </c>
       <c r="B696" s="0" t="s">
         <v>20</v>
       </c>
@@ -14715,8 +14737,8 @@
   </sheetPr>
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G111" activeCellId="0" sqref="G111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N97" activeCellId="0" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14729,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -14758,7 +14780,7 @@
         <v>43850</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -14787,7 +14809,7 @@
         <v>43854</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -14818,7 +14840,7 @@
         <v>43856</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -14849,7 +14871,7 @@
         <v>43857</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -14880,7 +14902,7 @@
         <v>43858</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -14911,7 +14933,7 @@
         <v>43859</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -14942,7 +14964,7 @@
         <v>43860</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>3</v>
@@ -14973,7 +14995,7 @@
         <v>43861</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -15004,7 +15026,7 @@
         <v>43862</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -15035,7 +15057,7 @@
         <v>43863</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -15066,7 +15088,7 @@
         <v>43864</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -15097,7 +15119,7 @@
         <v>43865</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -15128,7 +15150,7 @@
         <v>43866</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -15159,7 +15181,7 @@
         <v>43867</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>5</v>
@@ -15190,7 +15212,7 @@
         <v>43868</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -15221,7 +15243,7 @@
         <v>43869</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -15252,7 +15274,7 @@
         <v>43870</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -15283,7 +15305,7 @@
         <v>43871</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -15314,7 +15336,7 @@
         <v>43872</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -15345,7 +15367,7 @@
         <v>43873</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -15376,7 +15398,7 @@
         <v>43874</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -15407,7 +15429,7 @@
         <v>43875</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -15438,7 +15460,7 @@
         <v>43876</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -15469,7 +15491,7 @@
         <v>43877</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -15500,7 +15522,7 @@
         <v>43878</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -15531,7 +15553,7 @@
         <v>43879</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -15562,7 +15584,7 @@
         <v>43880</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>20</v>
@@ -15593,7 +15615,7 @@
         <v>43881</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>53</v>
@@ -15624,7 +15646,7 @@
         <v>43882</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>100</v>
@@ -15656,7 +15678,7 @@
         <v>43883</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>229</v>
@@ -15688,7 +15710,7 @@
         <v>43884</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>169</v>
@@ -15720,7 +15742,7 @@
         <v>43885</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>231</v>
@@ -15752,7 +15774,7 @@
         <v>43886</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>144</v>
@@ -15784,7 +15806,7 @@
         <v>43887</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>284</v>
@@ -15816,7 +15838,7 @@
         <v>43888</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>505</v>
@@ -15848,7 +15870,7 @@
         <v>43889</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>571</v>
@@ -15880,7 +15902,7 @@
         <v>43890</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>813</v>
@@ -15912,7 +15934,7 @@
         <v>43891</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1062</v>
@@ -15944,7 +15966,7 @@
         <v>43892</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>600</v>
@@ -15976,7 +15998,7 @@
         <v>43893</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>516</v>
@@ -16008,7 +16030,7 @@
         <v>43894</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>438</v>
@@ -16040,7 +16062,7 @@
         <v>43895</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>518</v>
@@ -16072,7 +16094,7 @@
         <v>43896</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>483</v>
@@ -16104,7 +16126,7 @@
         <v>43897</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>367</v>
@@ -16136,7 +16158,7 @@
         <v>43898</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>248</v>
@@ -16168,7 +16190,7 @@
         <v>43899</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>131</v>
@@ -16200,7 +16222,7 @@
         <v>43900</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>242</v>
@@ -16232,7 +16254,7 @@
         <v>43901</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>114</v>
@@ -16264,7 +16286,7 @@
         <v>43902</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>110</v>
@@ -16296,7 +16318,7 @@
         <v>43903</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>107</v>
@@ -16328,7 +16350,7 @@
         <v>43904</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>76</v>
@@ -16360,7 +16382,7 @@
         <v>43905</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>74</v>
@@ -16392,7 +16414,7 @@
         <v>43906</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>84</v>
@@ -16424,7 +16446,7 @@
         <v>43907</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>93</v>
@@ -16456,7 +16478,7 @@
         <v>43908</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>152</v>
@@ -16488,7 +16510,7 @@
         <v>43909</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>87</v>
@@ -16520,7 +16542,7 @@
         <v>43910</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>147</v>
@@ -16552,7 +16574,7 @@
         <v>43911</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>98</v>
@@ -16584,7 +16606,7 @@
         <v>43912</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>64</v>
@@ -16616,7 +16638,7 @@
         <v>43913</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>76</v>
@@ -16648,7 +16670,7 @@
         <v>43914</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>100</v>
@@ -16680,7 +16702,7 @@
         <v>43915</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>104</v>
@@ -16712,7 +16734,7 @@
         <v>43916</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>91</v>
@@ -16744,7 +16766,7 @@
         <v>43917</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>146</v>
@@ -16776,7 +16798,7 @@
         <v>43918</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>105</v>
@@ -16808,7 +16830,7 @@
         <v>43919</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>78</v>
@@ -16840,7 +16862,7 @@
         <v>43920</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>125</v>
@@ -16872,7 +16894,7 @@
         <v>43921</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>101</v>
@@ -16904,7 +16926,7 @@
         <v>43922</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>89</v>
@@ -16936,7 +16958,7 @@
         <v>43923</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>86</v>
@@ -16968,7 +16990,7 @@
         <v>43924</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>94</v>
@@ -17000,7 +17022,7 @@
         <v>43925</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>81</v>
@@ -17032,7 +17054,7 @@
         <v>43926</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>47</v>
@@ -17064,7 +17086,7 @@
         <v>43927</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>47</v>
@@ -17096,7 +17118,7 @@
         <v>43928</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>53</v>
@@ -17128,7 +17150,7 @@
         <v>43929</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>39</v>
@@ -17160,7 +17182,7 @@
         <v>43930</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>27</v>
@@ -17192,7 +17214,7 @@
         <v>43931</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>30</v>
@@ -17224,7 +17246,7 @@
         <v>43932</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>32</v>
@@ -17256,7 +17278,7 @@
         <v>43933</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>25</v>
@@ -17288,7 +17310,7 @@
         <v>43934</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>27</v>
@@ -17320,7 +17342,7 @@
         <v>43935</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>27</v>
@@ -17352,7 +17374,7 @@
         <v>43936</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>22</v>
@@ -17384,7 +17406,7 @@
         <v>43937</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>22</v>
@@ -17416,7 +17438,7 @@
         <v>43938</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>18</v>
@@ -17448,7 +17470,7 @@
         <v>43939</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>8</v>
@@ -17480,7 +17502,7 @@
         <v>43940</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>13</v>
@@ -17512,7 +17534,7 @@
         <v>43941</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>9</v>
@@ -17544,7 +17566,7 @@
         <v>43942</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>11</v>
@@ -17576,7 +17598,7 @@
         <v>43943</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>8</v>
@@ -17608,7 +17630,7 @@
         <v>43944</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>6</v>
@@ -17640,7 +17662,7 @@
         <v>43945</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>10</v>
@@ -17672,7 +17694,7 @@
         <v>43946</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>10</v>
@@ -17704,7 +17726,7 @@
         <v>43947</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>10</v>
@@ -17736,7 +17758,7 @@
         <v>43948</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>14</v>
@@ -17768,7 +17790,7 @@
         <v>43949</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>9</v>
@@ -17800,7 +17822,7 @@
         <v>43950</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>4</v>
@@ -17832,7 +17854,7 @@
         <v>43951</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>9</v>
@@ -17864,7 +17886,7 @@
         <v>43952</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>6</v>
@@ -17896,7 +17918,7 @@
         <v>43953</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>13</v>
@@ -17928,7 +17950,7 @@
         <v>43954</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>8</v>
@@ -17960,7 +17982,7 @@
         <v>43955</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>3</v>
@@ -17992,7 +18014,7 @@
         <v>43956</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>2</v>
@@ -18024,7 +18046,7 @@
         <v>43957</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>4</v>
@@ -18056,7 +18078,7 @@
         <v>43958</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>12</v>
@@ -18088,7 +18110,7 @@
         <v>43959</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>18</v>
@@ -18120,7 +18142,7 @@
         <v>43960</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>34</v>
@@ -18152,7 +18174,7 @@
         <v>43961</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>35</v>
@@ -18198,7 +18220,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="covid_19_daily_province" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -232,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K882"/>
+  <dimension ref="A1:K909"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B882" activeCellId="0" sqref="B882"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A876" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D882" activeCellId="0" sqref="D882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17689,6 +17689,13 @@
       <c r="D867" s="0" t="n">
         <v>131</v>
       </c>
+      <c r="E867" s="0" t="n">
+        <f aca="false">C867+E866</f>
+        <v>10893</v>
+      </c>
+      <c r="G867" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="n">
@@ -17703,6 +17710,13 @@
       <c r="D868" s="0" t="n">
         <v>6861</v>
       </c>
+      <c r="E868" s="0" t="n">
+        <f aca="false">C868+E867</f>
+        <v>10893</v>
+      </c>
+      <c r="G868" s="0" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2" t="n">
@@ -17718,7 +17732,7 @@
         <v>580</v>
       </c>
       <c r="E869" s="0" t="n">
-        <f aca="false">C869+E866</f>
+        <f aca="false">C869+E868</f>
         <v>10899</v>
       </c>
     </row>
@@ -17735,6 +17749,10 @@
       <c r="D870" s="0" t="n">
         <v>31</v>
       </c>
+      <c r="E870" s="0" t="n">
+        <f aca="false">C870+E869</f>
+        <v>10899</v>
+      </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2" t="n">
@@ -17749,6 +17767,13 @@
       <c r="D871" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="E871" s="0" t="n">
+        <f aca="false">C871+E870</f>
+        <v>10899</v>
+      </c>
+      <c r="G871" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="n">
@@ -17763,6 +17788,13 @@
       <c r="D872" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="E872" s="0" t="n">
+        <f aca="false">C872+E871</f>
+        <v>10899</v>
+      </c>
+      <c r="G872" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="n">
@@ -17778,7 +17810,7 @@
         <v>53</v>
       </c>
       <c r="E873" s="0" t="n">
-        <f aca="false">C873+E869</f>
+        <f aca="false">C873+E872</f>
         <v>10900</v>
       </c>
     </row>
@@ -17855,6 +17887,10 @@
       <c r="D877" s="0" t="n">
         <v>136</v>
       </c>
+      <c r="E877" s="0" t="n">
+        <f aca="false">C877+E876</f>
+        <v>10908</v>
+      </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2" t="n">
@@ -17869,6 +17905,10 @@
       <c r="D878" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="E878" s="0" t="n">
+        <f aca="false">C878+E877</f>
+        <v>10908</v>
+      </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2" t="n">
@@ -17883,6 +17923,10 @@
       <c r="D879" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="E879" s="0" t="n">
+        <f aca="false">C879+E878</f>
+        <v>10908</v>
+      </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2" t="n">
@@ -17897,6 +17941,13 @@
       <c r="D880" s="0" t="n">
         <v>1465</v>
       </c>
+      <c r="E880" s="0" t="n">
+        <f aca="false">C880+E879</f>
+        <v>10908</v>
+      </c>
+      <c r="G880" s="0" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="n">
@@ -17911,6 +17962,10 @@
       <c r="D881" s="0" t="n">
         <v>114</v>
       </c>
+      <c r="E881" s="0" t="n">
+        <f aca="false">C881+E880</f>
+        <v>10908</v>
+      </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="n">
@@ -17924,6 +17979,556 @@
       </c>
       <c r="D882" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="E882" s="0" t="n">
+        <f aca="false">C882+E881</f>
+        <v>10908</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C883" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D883" s="0" t="n">
+        <v>690</v>
+      </c>
+      <c r="E883" s="0" t="n">
+        <f aca="false">C883+E882</f>
+        <v>10920</v>
+      </c>
+      <c r="G883" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C884" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D884" s="0" t="n">
+        <v>6862</v>
+      </c>
+      <c r="E884" s="0" t="n">
+        <f aca="false">C884+E883</f>
+        <v>10921</v>
+      </c>
+      <c r="F884" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G884" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C885" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D885" s="0" t="n">
+        <v>582</v>
+      </c>
+      <c r="E885" s="0" t="n">
+        <f aca="false">C885+E884</f>
+        <v>10923</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C886" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D886" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E886" s="0" t="n">
+        <f aca="false">C886+E885</f>
+        <v>10925</v>
+      </c>
+      <c r="G886" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A887" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B887" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C887" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D887" s="0" t="n">
+        <v>701</v>
+      </c>
+      <c r="E887" s="0" t="n">
+        <f aca="false">C887+E886</f>
+        <v>10933</v>
+      </c>
+      <c r="G887" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C888" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D888" s="0" t="n">
+        <v>1466</v>
+      </c>
+      <c r="E888" s="0" t="n">
+        <f aca="false">C888+E887</f>
+        <v>10934</v>
+      </c>
+      <c r="F888" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G888" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C889" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D889" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="E889" s="0" t="n">
+        <f aca="false">C889+E888</f>
+        <v>10935</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C890" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D890" s="0" t="n">
+        <v>702</v>
+      </c>
+      <c r="E890" s="0" t="n">
+        <f aca="false">C890+E889</f>
+        <v>10947</v>
+      </c>
+      <c r="F890" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G890" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C891" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D891" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="E891" s="0" t="n">
+        <f aca="false">C891+E890</f>
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C892" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D892" s="0" t="n">
+        <v>6865</v>
+      </c>
+      <c r="E892" s="0" t="n">
+        <f aca="false">C892+E891</f>
+        <v>10953</v>
+      </c>
+      <c r="G892" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A893" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B893" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C893" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D893" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E893" s="0" t="n">
+        <f aca="false">C893+E892</f>
+        <v>10954</v>
+      </c>
+      <c r="G893" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A894" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B894" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C894" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D894" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="E894" s="0" t="n">
+        <f aca="false">C894+E893</f>
+        <v>10956</v>
+      </c>
+      <c r="G894" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A895" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B895" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C895" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D895" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E895" s="0" t="n">
+        <f aca="false">C895+E894</f>
+        <v>10957</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A896" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B896" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C896" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D896" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="E896" s="0" t="n">
+        <f aca="false">C896+E895</f>
+        <v>10958</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A897" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B897" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C897" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D897" s="0" t="n">
+        <v>706</v>
+      </c>
+      <c r="E897" s="0" t="n">
+        <f aca="false">C897+E896</f>
+        <v>10962</v>
+      </c>
+      <c r="F897" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G897" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A898" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B898" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C898" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D898" s="0" t="n">
+        <v>594</v>
+      </c>
+      <c r="E898" s="0" t="n">
+        <f aca="false">C898+E897</f>
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A899" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B899" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C899" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D899" s="0" t="n">
+        <v>709</v>
+      </c>
+      <c r="E899" s="0" t="n">
+        <f aca="false">C899+E898</f>
+        <v>10980</v>
+      </c>
+      <c r="G899" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A900" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B900" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C900" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D900" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E900" s="0" t="n">
+        <f aca="false">C900+E899</f>
+        <v>10981</v>
+      </c>
+      <c r="G900" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B901" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C901" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D901" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="E901" s="0" t="n">
+        <f aca="false">C901+E900</f>
+        <v>10984</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B902" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C902" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D902" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E902" s="0" t="n">
+        <f aca="false">C902+E901</f>
+        <v>10985</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B903" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C903" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D903" s="0" t="n">
+        <v>1467</v>
+      </c>
+      <c r="E903" s="0" t="n">
+        <f aca="false">C903+E902</f>
+        <v>10986</v>
+      </c>
+      <c r="G903" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B904" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C904" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D904" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="E904" s="0" t="n">
+        <f aca="false">C904+E903</f>
+        <v>10987</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B905" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C905" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D905" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E905" s="0" t="n">
+        <f aca="false">C905+E904</f>
+        <v>11001</v>
+      </c>
+      <c r="G905" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B906" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C906" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D906" s="0" t="n">
+        <v>6868</v>
+      </c>
+      <c r="E906" s="0" t="n">
+        <f aca="false">C906+E905</f>
+        <v>11004</v>
+      </c>
+      <c r="G906" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B907" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C907" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D907" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="E907" s="0" t="n">
+        <f aca="false">C907+E906</f>
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C908" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D908" s="0" t="n">
+        <v>712</v>
+      </c>
+      <c r="E908" s="0" t="n">
+        <f aca="false">C908+E907</f>
+        <v>11013</v>
+      </c>
+      <c r="G908" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C909" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D909" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E909" s="0" t="n">
+        <f aca="false">C909+E908</f>
+        <v>11014</v>
       </c>
     </row>
   </sheetData>
@@ -17942,10 +18547,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N97" activeCellId="0" sqref="N97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G111" activeCellId="0" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21406,6 +22011,134 @@
       </c>
       <c r="I109" s="0" t="n">
         <v>10922</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4" t="n">
+        <v>43962</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <f aca="false">D109+C110</f>
+        <v>10936</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <f aca="false">F109+E110</f>
+        <v>258</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <f aca="false">H110-H109</f>
+        <v>12398</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>680890</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>16330</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="4" t="n">
+        <v>43963</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <f aca="false">D110+C111</f>
+        <v>10962</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <f aca="false">F110+E111</f>
+        <v>259</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <f aca="false">H111-H110</f>
+        <v>15030</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>695920</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>19579</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="4" t="n">
+        <v>43964</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <f aca="false">D111+C112</f>
+        <v>10991</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <f aca="false">F111+E112</f>
+        <v>260</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <f aca="false">H112-H111</f>
+        <v>15564</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>711484</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>20722</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="n">
+        <v>43965</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <f aca="false">D112+C113</f>
+        <v>11018</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <f aca="false">F112+E113</f>
+        <v>260</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <f aca="false">H113-H112</f>
+        <v>15263</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>726747</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>19875</v>
       </c>
     </row>
   </sheetData>
@@ -21426,8 +22159,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21468,37 +22201,27 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>683</v>
+        <v>720</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">H2-120284</f>
-        <v>3605</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>123889</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>5726</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -21507,7 +22230,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -21518,27 +22241,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>6861</v>
+        <v>6868</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -21547,8 +22270,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
-        <f aca="false">104+479</f>
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -21559,7 +22281,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
@@ -21568,7 +22290,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -21579,7 +22301,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
@@ -21588,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -21599,7 +22321,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
@@ -21608,7 +22330,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -21619,16 +22341,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -21639,36 +22361,36 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -21679,16 +22401,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -21699,7 +22421,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>22</v>
@@ -21708,7 +22430,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -21719,7 +22441,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>23</v>
@@ -21728,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -21739,16 +22461,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -21759,7 +22481,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>25</v>
@@ -21768,18 +22490,18 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1366</v>
+        <v>1467</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>26</v>
@@ -21799,7 +22521,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>27</v>

--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -232,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K909"/>
+  <dimension ref="A1:K914"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A876" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D882" activeCellId="0" sqref="D882"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A900" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D913" activeCellId="0" sqref="D913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18531,6 +18531,108 @@
         <v>11014</v>
       </c>
     </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C910" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D910" s="0" t="n">
+        <v>725</v>
+      </c>
+      <c r="E910" s="0" t="n">
+        <f aca="false">C910+E909</f>
+        <v>11019</v>
+      </c>
+      <c r="G910" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C911" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D911" s="0" t="n">
+        <v>6869</v>
+      </c>
+      <c r="E911" s="0" t="n">
+        <f aca="false">C911+E910</f>
+        <v>11020</v>
+      </c>
+      <c r="F911" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G911" s="0" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C912" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D912" s="0" t="n">
+        <v>608</v>
+      </c>
+      <c r="E912" s="0" t="n">
+        <f aca="false">C912+E911</f>
+        <v>11028</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C913" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D913" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="E913" s="0" t="n">
+        <f aca="false">C913+E912</f>
+        <v>11032</v>
+      </c>
+      <c r="G913" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C914" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D914" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E914" s="0" t="n">
+        <f aca="false">C914+E913</f>
+        <v>11033</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -18547,10 +18649,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I113"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G111" activeCellId="0" sqref="G111"/>
+      <selection pane="topLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22139,6 +22241,38 @@
       </c>
       <c r="I113" s="0" t="n">
         <v>19875</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="n">
+        <v>43966</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <f aca="false">D113+C114</f>
+        <v>11037</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <f aca="false">F113+E114</f>
+        <v>262</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <f aca="false">H114-H113</f>
+        <v>14398</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>741145</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>18843</v>
       </c>
     </row>
   </sheetData>
@@ -22160,7 +22294,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22201,16 +22335,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -22221,14 +22355,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" s="0" t="n">
         <v>134</v>
       </c>
@@ -22241,36 +22372,36 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>6868</v>
+        <v>6869</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -22281,14 +22412,11 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D6" s="0" t="n">
         <v>31</v>
       </c>
@@ -22301,14 +22429,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D7" s="0" t="n">
         <v>49</v>
       </c>
@@ -22321,14 +22446,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" s="0" t="n">
         <v>45</v>
       </c>
@@ -22341,14 +22463,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D9" s="0" t="n">
         <v>53</v>
       </c>
@@ -22361,16 +22480,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
@@ -22381,14 +22500,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" s="0" t="n">
         <v>53</v>
       </c>
@@ -22401,16 +22517,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -22421,14 +22537,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D13" s="0" t="n">
         <v>137</v>
       </c>
@@ -22441,14 +22554,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" s="0" t="n">
         <v>20</v>
       </c>
@@ -22461,14 +22571,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="D15" s="0" t="n">
         <v>19</v>
       </c>
@@ -22481,14 +22588,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D16" s="0" t="n">
         <v>1467</v>
       </c>
@@ -22501,14 +22605,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="D17" s="0" t="n">
         <v>117</v>
       </c>
@@ -22521,13 +22622,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>14</v>

--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="covid_19_daily_province" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -194,7 +194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,6 +215,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K914"/>
+  <dimension ref="A1:K955"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A900" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D913" activeCellId="0" sqref="D913"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A908" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A927" activeCellId="0" sqref="A927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18087,7 +18091,7 @@
         <v>10933</v>
       </c>
       <c r="G887" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18173,6 +18177,9 @@
         <f aca="false">C891+E890</f>
         <v>10950</v>
       </c>
+      <c r="G891" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="4" t="n">
@@ -18333,7 +18340,7 @@
         <v>10980</v>
       </c>
       <c r="G899" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18510,7 +18517,7 @@
         <v>11013</v>
       </c>
       <c r="G908" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18612,7 +18619,7 @@
         <v>11032</v>
       </c>
       <c r="G913" s="0" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18631,6 +18638,819 @@
       <c r="E914" s="0" t="n">
         <f aca="false">C914+E913</f>
         <v>11033</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="5" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C915" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D915" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="E915" s="0" t="n">
+        <f aca="false">C915+E914</f>
+        <v>11038</v>
+      </c>
+      <c r="G915" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="5" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C916" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D916" s="0" t="n">
+        <v>6870</v>
+      </c>
+      <c r="E916" s="0" t="n">
+        <f aca="false">C916+E915</f>
+        <v>11039</v>
+      </c>
+      <c r="G916" s="0" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="4" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C917" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D917" s="0" t="n">
+        <v>612</v>
+      </c>
+      <c r="E917" s="0" t="n">
+        <f aca="false">C917+E916</f>
+        <v>11043</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="5" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C918" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D918" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E918" s="0" t="n">
+        <f aca="false">C918+E917</f>
+        <v>11044</v>
+      </c>
+      <c r="G918" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="5" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C919" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D919" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="E919" s="0" t="n">
+        <f aca="false">C919+E918</f>
+        <v>11046</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C920" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D920" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="E920" s="0" t="n">
+        <f aca="false">C920+E919</f>
+        <v>11047</v>
+      </c>
+      <c r="G920" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C921" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D921" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="E921" s="0" t="n">
+        <f aca="false">C921+E920</f>
+        <v>11047</v>
+      </c>
+      <c r="G921" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C922" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D922" s="0" t="n">
+        <v>6871</v>
+      </c>
+      <c r="E922" s="0" t="n">
+        <f aca="false">C922+E921</f>
+        <v>11048</v>
+      </c>
+      <c r="F922" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G922" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C923" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D923" s="0" t="n">
+        <v>619</v>
+      </c>
+      <c r="E923" s="0" t="n">
+        <f aca="false">C923+E922</f>
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C924" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D924" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E924" s="0" t="n">
+        <f aca="false">C924+E923</f>
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C925" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D925" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E925" s="0" t="n">
+        <f aca="false">C925+E924</f>
+        <v>11055</v>
+      </c>
+      <c r="G925" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C926" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D926" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="E926" s="0" t="n">
+        <f aca="false">C926+E925</f>
+        <v>11055</v>
+      </c>
+      <c r="G926" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C927" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D927" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E927" s="0" t="n">
+        <f aca="false">C927+E926</f>
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C928" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D928" s="0" t="n">
+        <v>719</v>
+      </c>
+      <c r="E928" s="0" t="n">
+        <f aca="false">C928+E927</f>
+        <v>11058</v>
+      </c>
+      <c r="G928" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C929" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D929" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E929" s="0" t="n">
+        <f aca="false">C929+E928</f>
+        <v>11058</v>
+      </c>
+      <c r="G929" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C930" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D930" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E930" s="0" t="n">
+        <f aca="false">C930+E929</f>
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C931" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D931" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E931" s="0" t="n">
+        <f aca="false">C931+E930</f>
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C932" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D932" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E932" s="0" t="n">
+        <f aca="false">C932+E931</f>
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C933" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D933" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E933" s="0" t="n">
+        <f aca="false">C933+E932</f>
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C934" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D934" s="0" t="n">
+        <v>1467</v>
+      </c>
+      <c r="E934" s="0" t="n">
+        <f aca="false">C934+E933</f>
+        <v>11061</v>
+      </c>
+      <c r="G934" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C935" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D935" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="E935" s="0" t="n">
+        <f aca="false">C935+E934</f>
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="2" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C936" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D936" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E936" s="0" t="n">
+        <f aca="false">C936+E935</f>
+        <v>11061</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="5" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C937" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D937" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="E937" s="0" t="n">
+        <f aca="false">C937+E936</f>
+        <v>11067</v>
+      </c>
+      <c r="G937" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="5" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C938" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D938" s="0" t="n">
+        <v>621</v>
+      </c>
+      <c r="E938" s="0" t="n">
+        <f aca="false">C938+E937</f>
+        <v>11069</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="5" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C939" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D939" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E939" s="0" t="n">
+        <f aca="false">C939+E938</f>
+        <v>11073</v>
+      </c>
+      <c r="G939" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="5" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C940" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D940" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E940" s="0" t="n">
+        <f aca="false">C940+E939</f>
+        <v>11074</v>
+      </c>
+      <c r="G940" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="5" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C941" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D941" s="0" t="n">
+        <v>748</v>
+      </c>
+      <c r="E941" s="0" t="n">
+        <f aca="false">C941+E940</f>
+        <v>11084</v>
+      </c>
+      <c r="G941" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="5" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C942" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D942" s="0" t="n">
+        <v>6872</v>
+      </c>
+      <c r="E942" s="0" t="n">
+        <f aca="false">C942+E941</f>
+        <v>11085</v>
+      </c>
+      <c r="G942" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="5" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C943" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D943" s="0" t="n">
+        <v>631</v>
+      </c>
+      <c r="E943" s="0" t="n">
+        <f aca="false">C943+E942</f>
+        <v>11095</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="5" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C944" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D944" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="E944" s="0" t="n">
+        <f aca="false">C944+E943</f>
+        <v>11105</v>
+      </c>
+      <c r="G944" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="5" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C945" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D945" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E945" s="0" t="n">
+        <f aca="false">C945+E944</f>
+        <v>11106</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="5" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C946" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D946" s="0" t="n">
+        <v>752</v>
+      </c>
+      <c r="E946" s="0" t="n">
+        <f aca="false">C946+E945</f>
+        <v>11110</v>
+      </c>
+      <c r="G946" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="5" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C947" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D947" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="E947" s="0" t="n">
+        <f aca="false">C947+E946</f>
+        <v>11117</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="5" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C948" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D948" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E948" s="0" t="n">
+        <f aca="false">C948+E947</f>
+        <v>11117</v>
+      </c>
+      <c r="F948" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G948" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="5" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C949" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D949" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="E949" s="0" t="n">
+        <f aca="false">C949+E948</f>
+        <v>11118</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="5" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C950" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D950" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="E950" s="0" t="n">
+        <f aca="false">C950+E949</f>
+        <v>11120</v>
+      </c>
+      <c r="G950" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="5" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C951" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D951" s="0" t="n">
+        <v>646</v>
+      </c>
+      <c r="E951" s="0" t="n">
+        <f aca="false">C951+E950</f>
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="5" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B952" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C952" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D952" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E952" s="0" t="n">
+        <f aca="false">C952+E951</f>
+        <v>11129</v>
+      </c>
+      <c r="G952" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="5" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B953" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C953" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D953" s="0" t="n">
+        <v>726</v>
+      </c>
+      <c r="E953" s="0" t="n">
+        <f aca="false">C953+E952</f>
+        <v>11135</v>
+      </c>
+      <c r="G953" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="5" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B954" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C954" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D954" s="0" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E954" s="0" t="n">
+        <f aca="false">C954+E953</f>
+        <v>11137</v>
+      </c>
+      <c r="G954" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="5" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B955" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C955" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D955" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E955" s="0" t="n">
+        <f aca="false">C955+E954</f>
+        <v>11138</v>
       </c>
     </row>
   </sheetData>
@@ -18649,10 +19469,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I120" activeCellId="0" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22273,6 +23093,198 @@
       </c>
       <c r="I114" s="0" t="n">
         <v>18843</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="n">
+        <v>43967</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <f aca="false">D114+C115</f>
+        <v>11050</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <f aca="false">F114+E115</f>
+        <v>262</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <f aca="false">H115-H114</f>
+        <v>6508</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>747653</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>17660</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="n">
+        <v>43968</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <f aca="false">D115+C116</f>
+        <v>11065</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <f aca="false">F115+E116</f>
+        <v>263</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <f aca="false">H116-H115</f>
+        <v>5558</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>753211</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>16093</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="4" t="n">
+        <v>43969</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <f aca="false">D116+C117</f>
+        <v>11078</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <f aca="false">F116+E117</f>
+        <v>263</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <f aca="false">H117-H116</f>
+        <v>12363</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>765574</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>16925</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="n">
+        <v>43970</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <f aca="false">D117+C118</f>
+        <v>11110</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <f aca="false">F117+E118</f>
+        <v>263</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <f aca="false">H118-H117</f>
+        <v>10859</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>776433</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>16351</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="n">
+        <v>43971</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <f aca="false">D118+C119</f>
+        <v>11122</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <f aca="false">F118+E119</f>
+        <v>264</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <f aca="false">H119-H118</f>
+        <v>12251</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>788684</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>18089</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="n">
+        <v>43972</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <f aca="false">D119+C120</f>
+        <v>11142</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <f aca="false">F119+E120</f>
+        <v>264</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <f aca="false">H120-H119</f>
+        <v>13734</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>802418</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>20286</v>
       </c>
     </row>
   </sheetData>
@@ -22293,8 +23305,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22335,16 +23347,16 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>725</v>
+        <v>758</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -22355,13 +23367,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" s="0" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -22372,27 +23387,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>6869</v>
+        <v>6872</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -22401,7 +23416,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -22412,13 +23427,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -22429,13 +23447,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" s="0" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -22446,13 +23467,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -22463,13 +23487,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" s="0" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
@@ -22480,33 +23507,36 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>716</v>
+        <v>741</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" s="0" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
@@ -22517,16 +23547,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -22537,13 +23567,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" s="0" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -22554,13 +23587,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
@@ -22571,13 +23607,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -22588,30 +23627,36 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="D16" s="0" t="n">
-        <v>1467</v>
+        <v>1370</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="D17" s="0" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -22622,10 +23667,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>43966</v>
+        <v>43972</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>14</v>

--- a/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
+++ b/Data/input/covid_19_south_korea_full_no_airport_xls.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -236,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K955"/>
+  <dimension ref="A1:K1039"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A908" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A927" activeCellId="0" sqref="A927"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1020" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1041" activeCellId="0" sqref="A1041"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19453,6 +19453,1689 @@
         <v>11138</v>
       </c>
     </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B956" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C956" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D956" s="0" t="n">
+        <v>758</v>
+      </c>
+      <c r="E956" s="0" t="n">
+        <f aca="false">C956+E955</f>
+        <v>11142</v>
+      </c>
+      <c r="G956" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B957" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C957" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D957" s="0" t="n">
+        <v>6873</v>
+      </c>
+      <c r="E957" s="0" t="n">
+        <f aca="false">C957+E956</f>
+        <v>11143</v>
+      </c>
+      <c r="F957" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G957" s="0" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B958" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C958" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D958" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="E958" s="0" t="n">
+        <f aca="false">C958+E957</f>
+        <v>11146</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C959" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D959" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E959" s="0" t="n">
+        <f aca="false">C959+E958</f>
+        <v>11147</v>
+      </c>
+      <c r="G959" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B960" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C960" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D960" s="0" t="n">
+        <v>739</v>
+      </c>
+      <c r="E960" s="0" t="n">
+        <f aca="false">C960+E959</f>
+        <v>11160</v>
+      </c>
+      <c r="F960" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G960" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="5" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C961" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D961" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E961" s="0" t="n">
+        <f aca="false">C961+E960</f>
+        <v>11161</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="5" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B962" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C962" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D962" s="0" t="n">
+        <v>764</v>
+      </c>
+      <c r="E962" s="0" t="n">
+        <f aca="false">C962+E961</f>
+        <v>11167</v>
+      </c>
+      <c r="G962" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="5" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C963" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D963" s="0" t="n">
+        <v>655</v>
+      </c>
+      <c r="E963" s="0" t="n">
+        <f aca="false">C963+E962</f>
+        <v>11173</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="5" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B964" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C964" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D964" s="0" t="n">
+        <v>745</v>
+      </c>
+      <c r="E964" s="0" t="n">
+        <f aca="false">C964+E963</f>
+        <v>11179</v>
+      </c>
+      <c r="G964" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="5" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B965" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C965" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D965" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E965" s="0" t="n">
+        <f aca="false">C965+E964</f>
+        <v>11180</v>
+      </c>
+      <c r="G965" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="5" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C966" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D966" s="0" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E966" s="0" t="n">
+        <f aca="false">C966+E965</f>
+        <v>11186</v>
+      </c>
+      <c r="G966" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C967" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D967" s="0" t="n">
+        <v>770</v>
+      </c>
+      <c r="E967" s="0" t="n">
+        <f aca="false">C967+E966</f>
+        <v>11192</v>
+      </c>
+      <c r="G967" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B968" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C968" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D968" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="E968" s="0" t="n">
+        <f aca="false">C968+E967</f>
+        <v>11192</v>
+      </c>
+      <c r="G968" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C969" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D969" s="0" t="n">
+        <v>6874</v>
+      </c>
+      <c r="E969" s="0" t="n">
+        <f aca="false">C969+E968</f>
+        <v>11193</v>
+      </c>
+      <c r="G969" s="0" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C970" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D970" s="0" t="n">
+        <v>657</v>
+      </c>
+      <c r="E970" s="0" t="n">
+        <f aca="false">C970+E969</f>
+        <v>11195</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C971" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D971" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E971" s="0" t="n">
+        <f aca="false">C971+E970</f>
+        <v>11195</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C972" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D972" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E972" s="0" t="n">
+        <f aca="false">C972+E971</f>
+        <v>11195</v>
+      </c>
+      <c r="G972" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C973" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D973" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E973" s="0" t="n">
+        <f aca="false">C973+E972</f>
+        <v>11195</v>
+      </c>
+      <c r="G973" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B974" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C974" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D974" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E974" s="0" t="n">
+        <f aca="false">C974+E973</f>
+        <v>11195</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B975" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C975" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D975" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="E975" s="0" t="n">
+        <f aca="false">C975+E974</f>
+        <v>11201</v>
+      </c>
+      <c r="F975" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G975" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C976" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D976" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E976" s="0" t="n">
+        <f aca="false">C976+E975</f>
+        <v>11201</v>
+      </c>
+      <c r="G976" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B977" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C977" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D977" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="E977" s="0" t="n">
+        <f aca="false">C977+E976</f>
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B978" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C978" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D978" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E978" s="0" t="n">
+        <f aca="false">C978+E977</f>
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B979" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C979" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D979" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E979" s="0" t="n">
+        <f aca="false">C979+E978</f>
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B980" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C980" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D980" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E980" s="0" t="n">
+        <f aca="false">C980+E979</f>
+        <v>11201</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B981" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C981" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D981" s="0" t="n">
+        <v>1476</v>
+      </c>
+      <c r="E981" s="0" t="n">
+        <f aca="false">C981+E980</f>
+        <v>11202</v>
+      </c>
+      <c r="G981" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B982" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C982" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D982" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E982" s="0" t="n">
+        <f aca="false">C982+E981</f>
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B983" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C983" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D983" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E983" s="0" t="n">
+        <f aca="false">C983+E982</f>
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B984" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C984" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D984" s="0" t="n">
+        <v>779</v>
+      </c>
+      <c r="E984" s="0" t="n">
+        <f aca="false">C984+E983</f>
+        <v>11211</v>
+      </c>
+      <c r="G984" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B985" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C985" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D985" s="0" t="n">
+        <v>6875</v>
+      </c>
+      <c r="E985" s="0" t="n">
+        <f aca="false">C985+E984</f>
+        <v>11212</v>
+      </c>
+      <c r="F985" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G985" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B986" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C986" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D986" s="0" t="n">
+        <v>662</v>
+      </c>
+      <c r="E986" s="0" t="n">
+        <f aca="false">C986+E985</f>
+        <v>11217</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B987" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C987" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D987" s="0" t="n">
+        <v>753</v>
+      </c>
+      <c r="E987" s="0" t="n">
+        <f aca="false">C987+E986</f>
+        <v>11219</v>
+      </c>
+      <c r="G987" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B988" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C988" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D988" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E988" s="0" t="n">
+        <f aca="false">C988+E987</f>
+        <v>11219</v>
+      </c>
+      <c r="F988" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G988" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B989" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C989" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D989" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E989" s="0" t="n">
+        <f aca="false">C989+E988</f>
+        <v>11220</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="5" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B990" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C990" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D990" s="0" t="n">
+        <v>1477</v>
+      </c>
+      <c r="E990" s="0" t="n">
+        <f aca="false">C990+E989</f>
+        <v>11221</v>
+      </c>
+      <c r="G990" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="5" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B991" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C991" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D991" s="0" t="n">
+        <v>798</v>
+      </c>
+      <c r="E991" s="0" t="n">
+        <f aca="false">C991+E990</f>
+        <v>11240</v>
+      </c>
+      <c r="G991" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="5" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B992" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C992" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D992" s="0" t="n">
+        <v>6878</v>
+      </c>
+      <c r="E992" s="0" t="n">
+        <f aca="false">C992+E991</f>
+        <v>11243</v>
+      </c>
+      <c r="G992" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="5" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B993" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C993" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D993" s="0" t="n">
+        <v>674</v>
+      </c>
+      <c r="E993" s="0" t="n">
+        <f aca="false">C993+E992</f>
+        <v>11255</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="5" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B994" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C994" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D994" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="E994" s="0" t="n">
+        <f aca="false">C994+E993</f>
+        <v>11261</v>
+      </c>
+      <c r="G994" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B995" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C995" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="D995" s="0" t="n">
+        <v>822</v>
+      </c>
+      <c r="E995" s="0" t="n">
+        <f aca="false">C995+E994</f>
+        <v>11285</v>
+      </c>
+      <c r="G995" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B996" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C996" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D996" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="E996" s="0" t="n">
+        <f aca="false">C996+E995</f>
+        <v>11286</v>
+      </c>
+      <c r="G996" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B997" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C997" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D997" s="0" t="n">
+        <v>6880</v>
+      </c>
+      <c r="E997" s="0" t="n">
+        <f aca="false">C997+E996</f>
+        <v>11288</v>
+      </c>
+      <c r="G997" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B998" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C998" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D998" s="0" t="n">
+        <v>703</v>
+      </c>
+      <c r="E998" s="0" t="n">
+        <f aca="false">C998+E997</f>
+        <v>11317</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B999" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C999" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D999" s="0" t="n">
+        <v>780</v>
+      </c>
+      <c r="E999" s="0" t="n">
+        <f aca="false">C999+E998</f>
+        <v>11338</v>
+      </c>
+      <c r="G999" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B1000" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1000" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1000" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="E1000" s="0" t="n">
+        <f aca="false">C1000+E999</f>
+        <v>11339</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="5" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B1001" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1001" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1001" s="0" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E1001" s="0" t="n">
+        <f aca="false">C1001+E1000</f>
+        <v>11340</v>
+      </c>
+      <c r="G1001" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="5" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B1002" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1002" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1002" s="0" t="n">
+        <v>842</v>
+      </c>
+      <c r="E1002" s="0" t="n">
+        <f aca="false">C1002+E1001</f>
+        <v>11360</v>
+      </c>
+      <c r="G1002" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="5" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B1003" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1003" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D1003" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="E1003" s="0" t="n">
+        <f aca="false">C1003+E1002</f>
+        <v>11378</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="5" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B1004" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1004" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1004" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1004" s="0" t="n">
+        <f aca="false">C1004+E1003</f>
+        <v>11398</v>
+      </c>
+      <c r="G1004" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1005" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1005" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1005" s="0" t="n">
+        <v>851</v>
+      </c>
+      <c r="E1005" s="0" t="n">
+        <f aca="false">C1005+E1004</f>
+        <v>11407</v>
+      </c>
+      <c r="G1005" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1006" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1006" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1006" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="E1006" s="0" t="n">
+        <f aca="false">C1006+E1005</f>
+        <v>11408</v>
+      </c>
+      <c r="G1006" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1007" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1007" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1007" s="0" t="n">
+        <v>6882</v>
+      </c>
+      <c r="E1007" s="0" t="n">
+        <f aca="false">C1007+E1006</f>
+        <v>11410</v>
+      </c>
+      <c r="G1007" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1008" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1008" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1008" s="0" t="n">
+        <v>731</v>
+      </c>
+      <c r="E1008" s="0" t="n">
+        <f aca="false">C1008+E1007</f>
+        <v>11420</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1009" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1009" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1009" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1009" s="0" t="n">
+        <f aca="false">C1009+E1008</f>
+        <v>11422</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1010" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1010" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1010" s="0" t="n">
+        <v>813</v>
+      </c>
+      <c r="E1010" s="0" t="n">
+        <f aca="false">C1010+E1009</f>
+        <v>11435</v>
+      </c>
+      <c r="G1010" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1011" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1011" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1011" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1011" s="0" t="n">
+        <f aca="false">C1011+E1010</f>
+        <v>11436</v>
+      </c>
+      <c r="G1011" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="5" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B1012" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1012" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1012" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1012" s="0" t="n">
+        <f aca="false">C1012+E1011</f>
+        <v>11437</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1013" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1013" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1013" s="0" t="n">
+        <v>857</v>
+      </c>
+      <c r="E1013" s="0" t="n">
+        <f aca="false">C1013+E1012</f>
+        <v>11443</v>
+      </c>
+      <c r="G1013" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1014" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1014" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1014" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E1014" s="0" t="n">
+        <f aca="false">C1014+E1013</f>
+        <v>11444</v>
+      </c>
+      <c r="G1014" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1015" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1015" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1015" s="0" t="n">
+        <v>6883</v>
+      </c>
+      <c r="E1015" s="0" t="n">
+        <f aca="false">C1015+E1014</f>
+        <v>11445</v>
+      </c>
+      <c r="F1015" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1015" s="0" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1016" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1016" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1016" s="0" t="n">
+        <v>734</v>
+      </c>
+      <c r="E1016" s="0" t="n">
+        <f aca="false">C1016+E1015</f>
+        <v>11448</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1017" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1017" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1017" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1017" s="0" t="n">
+        <f aca="false">C1017+E1016</f>
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1018" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1018" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1018" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1018" s="0" t="n">
+        <f aca="false">C1018+E1017</f>
+        <v>11451</v>
+      </c>
+      <c r="G1018" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1019" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1019" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1019" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1019" s="0" t="n">
+        <f aca="false">C1019+E1018</f>
+        <v>11453</v>
+      </c>
+      <c r="G1019" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1020" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1020" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1020" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="E1020" s="0" t="n">
+        <f aca="false">C1020+E1019</f>
+        <v>11465</v>
+      </c>
+      <c r="G1020" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1021" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1021" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1021" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1021" s="0" t="n">
+        <f aca="false">C1021+E1020</f>
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="5" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B1022" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1022" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1022" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1022" s="0" t="n">
+        <f aca="false">C1022+E1021</f>
+        <v>11467</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1023" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1023" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1023" s="0" t="n">
+        <v>858</v>
+      </c>
+      <c r="E1023" s="0" t="n">
+        <f aca="false">C1023+E1022</f>
+        <v>11468</v>
+      </c>
+      <c r="G1023" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1024" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1024" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1024" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="E1024" s="0" t="n">
+        <f aca="false">C1024+E1023</f>
+        <v>11468</v>
+      </c>
+      <c r="G1024" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1025" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1025" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1025" s="0" t="n">
+        <v>6884</v>
+      </c>
+      <c r="E1025" s="0" t="n">
+        <f aca="false">C1025+E1024</f>
+        <v>11469</v>
+      </c>
+      <c r="F1025" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1025" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1026" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1026" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1026" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="E1026" s="0" t="n">
+        <f aca="false">C1026+E1025</f>
+        <v>11489</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1027" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1027" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1027" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E1027" s="0" t="n">
+        <f aca="false">C1027+E1026</f>
+        <v>11489</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1028" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1028" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1028" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1028" s="0" t="n">
+        <f aca="false">C1028+E1027</f>
+        <v>11489</v>
+      </c>
+      <c r="G1028" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1029" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1029" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1029" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E1029" s="0" t="n">
+        <f aca="false">C1029+E1028</f>
+        <v>11489</v>
+      </c>
+      <c r="G1029" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1030" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1030" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1030" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1030" s="0" t="n">
+        <f aca="false">C1030+E1029</f>
+        <v>11489</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1031" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1031" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1031" s="0" t="n">
+        <v>837</v>
+      </c>
+      <c r="E1031" s="0" t="n">
+        <f aca="false">C1031+E1030</f>
+        <v>11501</v>
+      </c>
+      <c r="G1031" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1032" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1032" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1032" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E1032" s="0" t="n">
+        <f aca="false">C1032+E1031</f>
+        <v>11501</v>
+      </c>
+      <c r="G1032" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1033" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1033" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1033" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E1033" s="0" t="n">
+        <f aca="false">C1033+E1032</f>
+        <v>11501</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1034" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1034" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1034" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="E1034" s="0" t="n">
+        <f aca="false">C1034+E1033</f>
+        <v>11501</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1035" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1035" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1035" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1035" s="0" t="n">
+        <f aca="false">C1035+E1034</f>
+        <v>11501</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1036" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1036" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1036" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E1036" s="0" t="n">
+        <f aca="false">C1036+E1035</f>
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1037" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1037" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1037" s="0" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E1037" s="0" t="n">
+        <f aca="false">C1037+E1036</f>
+        <v>11502</v>
+      </c>
+      <c r="G1037" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1038" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1038" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1038" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E1038" s="0" t="n">
+        <f aca="false">C1038+E1037</f>
+        <v>11502</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="2" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B1039" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1039" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1039" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E1039" s="0" t="n">
+        <f aca="false">C1039+E1038</f>
+        <v>11502</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -19469,10 +21152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I120" activeCellId="0" sqref="I120"/>
+      <selection pane="topLeft" activeCell="G129" activeCellId="0" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23286,6 +24969,329 @@
       <c r="I120" s="0" t="n">
         <v>20286</v>
       </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="n">
+        <v>43973</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <f aca="false">D120+C121</f>
+        <v>11165</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <f aca="false">F120+E121</f>
+        <v>266</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <f aca="false">H121-H120</f>
+        <v>12002</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>814420</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>21569</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="4" t="n">
+        <v>43974</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <f aca="false">D121+C122</f>
+        <v>11190</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <f aca="false">F121+E122</f>
+        <v>266</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <f aca="false">H122-H121</f>
+        <v>5869</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>820289</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>20333</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="n">
+        <v>43975</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <f aca="false">D122+C123</f>
+        <v>11206</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <f aca="false">F122+E123</f>
+        <v>267</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <f aca="false">H123-H122</f>
+        <v>6148</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>826437</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>19089</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="4" t="n">
+        <v>43976</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <f aca="false">D123+C124</f>
+        <v>11225</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <f aca="false">F123+E124</f>
+        <v>269</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <f aca="false">H124-H123</f>
+        <v>13038</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>839475</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>22044</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="n">
+        <v>43977</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <f aca="false">D124+C125</f>
+        <v>11265</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <f aca="false">F124+E125</f>
+        <v>269</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <f aca="false">H125-H124</f>
+        <v>13401</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>852876</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>21061</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="4" t="n">
+        <v>43978</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <f aca="false">D125+C126</f>
+        <v>11344</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <f aca="false">F125+E126</f>
+        <v>269</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <f aca="false">H126-H125</f>
+        <v>15790</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>868666</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>22370</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="4" t="n">
+        <v>43979</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <f aca="false">D126+C127</f>
+        <v>11402</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <f aca="false">F126+E127</f>
+        <v>269</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <f aca="false">H127-H126</f>
+        <v>16454</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>885120</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>24557</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="4" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <f aca="false">D127+C128</f>
+        <v>11441</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <f aca="false">F127+E128</f>
+        <v>269</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <f aca="false">H128-H127</f>
+        <v>17781</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>902901</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>26298</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="n">
+        <v>43981</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <f aca="false">D128+C129</f>
+        <v>11468</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <f aca="false">F128+E129</f>
+        <v>270</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <f aca="false">H129-H128</f>
+        <v>7921</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>910822</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>23294</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="n">
+        <v>43982</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <f aca="false">D129+C130</f>
+        <v>11503</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <f aca="false">F129+E130</f>
+        <v>271</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <f aca="false">H130-H129</f>
+        <v>10569</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>921391</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>24058</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -23306,7 +25312,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23335,28 +25341,22 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>43972</v>
+      <c r="A2" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>758</v>
+        <v>862</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -23366,8 +25366,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>43972</v>
+      <c r="A3" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
@@ -23376,7 +25376,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
@@ -23386,37 +25386,37 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>43972</v>
+      <c r="A4" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>6872</v>
+        <v>6884</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>43972</v>
+      <c r="A5" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>652</v>
+        <v>760</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
@@ -23426,8 +25426,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>43972</v>
+      <c r="A6" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
@@ -23436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
@@ -23446,8 +25446,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>43972</v>
+      <c r="A7" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>16</v>
@@ -23456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
@@ -23466,17 +25466,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>43972</v>
+      <c r="A8" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
@@ -23486,8 +25486,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>43972</v>
+      <c r="A9" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
@@ -23506,28 +25506,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>43972</v>
+      <c r="A10" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>741</v>
+        <v>852</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>43972</v>
+      <c r="A11" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>20</v>
@@ -23536,18 +25536,18 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>43972</v>
+      <c r="A12" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>21</v>
@@ -23556,7 +25556,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
@@ -23566,8 +25566,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>43972</v>
+      <c r="A13" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>22</v>
@@ -23576,7 +25576,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
@@ -23586,8 +25586,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>43972</v>
+      <c r="A14" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>23</v>
@@ -23606,17 +25606,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>43972</v>
+      <c r="A15" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
@@ -23626,17 +25626,17 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>43972</v>
+      <c r="A16" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -23646,17 +25646,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>43972</v>
+      <c r="A17" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
@@ -23666,8 +25666,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>43972</v>
+      <c r="A18" s="2" t="n">
+        <v>43982</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>27</v>
@@ -23676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
